--- a/Final_Data.xlsx
+++ b/Final_Data.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7977.764682671324</v>
+        <v>7987.775782671325</v>
       </c>
       <c r="C2" t="n">
         <v>14298</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10038.56269753741</v>
+        <v>10332.41269753741</v>
       </c>
       <c r="C3" t="n">
         <v>29753</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9399.131668434029</v>
+        <v>9499.22306843403</v>
       </c>
       <c r="C4" t="n">
         <v>61741</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11643.48479394346</v>
+        <v>11829.25009394346</v>
       </c>
       <c r="C5" t="n">
         <v>29938</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8338.603980663416</v>
+        <v>8433.865880663416</v>
       </c>
       <c r="C6" t="n">
         <v>13999</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12158.23343117055</v>
+        <v>12289.47603117055</v>
       </c>
       <c r="C7" t="n">
         <v>39471</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8788.13578173385</v>
+        <v>8961.259381733851</v>
       </c>
       <c r="C8" t="n">
         <v>84262</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6864.100497084502</v>
+        <v>6907.775297084503</v>
       </c>
       <c r="C9" t="n">
         <v>13276</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9109.058747022991</v>
+        <v>9152.733547022992</v>
       </c>
       <c r="C10" t="n">
         <v>17951</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10821.31085321653</v>
+        <v>11045.63805321653</v>
       </c>
       <c r="C11" t="n">
         <v>34784</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10191.0128534292</v>
+        <v>10415.3400534292</v>
       </c>
       <c r="C12" t="n">
         <v>29869</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9769.075041180116</v>
+        <v>9837.073941180115</v>
       </c>
       <c r="C13" t="n">
         <v>48872</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6669.265782688491</v>
+        <v>6719.604082688491</v>
       </c>
       <c r="C14" t="n">
         <v>21352</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8697.630532728066</v>
+        <v>8747.968832728067</v>
       </c>
       <c r="C15" t="n">
         <v>37221</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11156.66947039288</v>
+        <v>11440.69187039289</v>
       </c>
       <c r="C16" t="n">
         <v>22738</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8720.962140761605</v>
+        <v>8785.955540761604</v>
       </c>
       <c r="C17" t="n">
         <v>18487</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8176.362140666237</v>
+        <v>8241.355540666238</v>
       </c>
       <c r="C18" t="n">
         <v>26243</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8918.97889047741</v>
+        <v>8983.97229047741</v>
       </c>
       <c r="C19" t="n">
         <v>37121</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9845.212544324091</v>
+        <v>10023.49674432409</v>
       </c>
       <c r="C20" t="n">
         <v>60931</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11420.86228053013</v>
+        <v>11555.40008053013</v>
       </c>
       <c r="C21" t="n">
         <v>23728</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9422.144891777023</v>
+        <v>9625.345591777022</v>
       </c>
       <c r="C22" t="n">
         <v>18251</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9628.943068540184</v>
+        <v>9770.115568540185</v>
       </c>
       <c r="C23" t="n">
         <v>35982</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10802.23943646056</v>
+        <v>10975.27443646056</v>
       </c>
       <c r="C24" t="n">
         <v>26367</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8707.126754537107</v>
+        <v>8816.974454537107</v>
       </c>
       <c r="C25" t="n">
         <v>60661</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8888.008531848744</v>
+        <v>9146.018731848742</v>
       </c>
       <c r="C27" t="n">
         <v>26473</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8854.543428038098</v>
+        <v>9042.775328038098</v>
       </c>
       <c r="C28" t="n">
         <v>16896</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7904.461233472575</v>
+        <v>8171.720933472576</v>
       </c>
       <c r="C29" t="n">
         <v>17000</v>
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10592.68777828502</v>
+        <v>10749.73257828502</v>
       </c>
       <c r="C30" t="n">
         <v>165082</v>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7915.870282562129</v>
+        <v>7936.107582562128</v>
       </c>
       <c r="C31" t="n">
         <v>17843</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8608.175913158566</v>
+        <v>8795.783013158567</v>
       </c>
       <c r="C32" t="n">
         <v>45723.07</v>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9228.678293660441</v>
+        <v>9520.182393660441</v>
       </c>
       <c r="C33" t="n">
         <v>26321</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10810.64471706758</v>
+        <v>11047.11231706758</v>
       </c>
       <c r="C34" t="n">
         <v>33271</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8409.898558219365</v>
+        <v>8465.566058219365</v>
       </c>
       <c r="C35" t="n">
         <v>22412</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8225.4010826718</v>
+        <v>8260.0119826718</v>
       </c>
       <c r="C36" t="n">
         <v>18228</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11297.9555589105</v>
+        <v>11422.2359589105</v>
       </c>
       <c r="C37" t="n">
         <v>43139</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7900.575432474391</v>
+        <v>7907.87753247439</v>
       </c>
       <c r="C38" t="n">
         <v>17563</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9355.843697798806</v>
+        <v>9649.760097798806</v>
       </c>
       <c r="C39" t="n">
         <v>18371</v>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8645.930875208967</v>
+        <v>8778.862975208966</v>
       </c>
       <c r="C40" t="n">
         <v>44853.07</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10009.50068848076</v>
+        <v>10293.92908848076</v>
       </c>
       <c r="C41" t="n">
         <v>13770</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9249.306860139232</v>
+        <v>9511.662260139232</v>
       </c>
       <c r="C42" t="n">
         <v>24470</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8435.470877394411</v>
+        <v>8554.56367739441</v>
       </c>
       <c r="C43" t="n">
         <v>43943</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9226.397325248898</v>
+        <v>9332.304725248896</v>
       </c>
       <c r="C44" t="n">
         <v>15306</v>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10394.33782459039</v>
+        <v>10500.24522459038</v>
       </c>
       <c r="C45" t="n">
         <v>21737</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10360.92209905728</v>
+        <v>10505.80499905728</v>
       </c>
       <c r="C46" t="n">
         <v>37361</v>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10649.36334696119</v>
+        <v>10760.26864696119</v>
       </c>
       <c r="C47" t="n">
         <v>34964</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10842.53844840261</v>
+        <v>11133.48494840261</v>
       </c>
       <c r="C48" t="n">
         <v>163052</v>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9036.629700436994</v>
+        <v>9210.490800436994</v>
       </c>
       <c r="C49" t="n">
         <v>15933</v>
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8587.313085076486</v>
+        <v>8776.015685076485</v>
       </c>
       <c r="C50" t="n">
         <v>60351</v>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11152.50960437287</v>
+        <v>11392.03890437287</v>
       </c>
       <c r="C51" t="n">
         <v>164642</v>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>14686.84266396497</v>
+        <v>14752.99086396497</v>
       </c>
       <c r="C52" t="n">
         <v>168882</v>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>18477.5032639966</v>
+        <v>18502.9522639966</v>
       </c>
       <c r="C53" t="n">
         <v>168372</v>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13223.43948437885</v>
+        <v>13303.98788437886</v>
       </c>
       <c r="C54" t="n">
         <v>32116</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8042.114113318176</v>
+        <v>8087.802213318176</v>
       </c>
       <c r="C55" t="n">
         <v>47822</v>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10498.00268219449</v>
+        <v>10521.53478219449</v>
       </c>
       <c r="C56" t="n">
         <v>40769</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12598.25963360497</v>
+        <v>12688.25163360497</v>
       </c>
       <c r="C57" t="n">
         <v>27858</v>

--- a/Final_Data.xlsx
+++ b/Final_Data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Financial_Comfort_Index</t>
+          <t>Financial_Stress_Index</t>
         </is>
       </c>
     </row>

--- a/Final_Data.xlsx
+++ b/Final_Data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Financial_Stress_Index</t>
+          <t>Financial_Comfort_Index</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
         <v>7987.775782671325</v>
       </c>
       <c r="C2" t="n">
-        <v>14298</v>
+        <v>3.711358231920548</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>10332.41269753741</v>
       </c>
       <c r="C3" t="n">
-        <v>29753</v>
+        <v>2.180956542197425</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>9499.22306843403</v>
       </c>
       <c r="C4" t="n">
-        <v>61741</v>
+        <v>1.002170356813139</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>11829.25009394346</v>
       </c>
       <c r="C5" t="n">
-        <v>29938</v>
+        <v>2.548600440911216</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>8433.865880663416</v>
       </c>
       <c r="C6" t="n">
-        <v>13999</v>
+        <v>3.922065861847275</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>12289.47603117055</v>
       </c>
       <c r="C7" t="n">
-        <v>39471</v>
+        <v>2.029211319703073</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>8961.259381733851</v>
       </c>
       <c r="C8" t="n">
-        <v>84262</v>
+        <v>0.6811492725071799</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>6907.775297084503</v>
       </c>
       <c r="C9" t="n">
-        <v>13276</v>
+        <v>3.421587827658934</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>9152.733547022992</v>
       </c>
       <c r="C10" t="n">
-        <v>17951</v>
+        <v>3.363600913598128</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>11045.63805321653</v>
       </c>
       <c r="C11" t="n">
-        <v>34784</v>
+        <v>2.02866260349586</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>10415.3400534292</v>
       </c>
       <c r="C12" t="n">
-        <v>29869</v>
+        <v>2.222371020121196</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>9837.073941180115</v>
       </c>
       <c r="C13" t="n">
-        <v>48872</v>
+        <v>1.32233180553282</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>6719.604082688491</v>
       </c>
       <c r="C14" t="n">
-        <v>21352</v>
+        <v>2.065614462345448</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>8747.968832728067</v>
       </c>
       <c r="C15" t="n">
-        <v>37221</v>
+        <v>1.547513500443298</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>11440.69187039289</v>
       </c>
       <c r="C16" t="n">
-        <v>22738</v>
+        <v>3.183657313747911</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>8785.955540761604</v>
       </c>
       <c r="C17" t="n">
-        <v>18487</v>
+        <v>3.118407529615405</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>8241.355540666238</v>
       </c>
       <c r="C18" t="n">
-        <v>26243</v>
+        <v>2.059406317875243</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>8983.97229047741</v>
       </c>
       <c r="C19" t="n">
-        <v>37121</v>
+        <v>1.58845397483904</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>10023.49674432409</v>
       </c>
       <c r="C20" t="n">
-        <v>60931</v>
+        <v>1.056276772086459</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>11555.40008053013</v>
       </c>
       <c r="C21" t="n">
-        <v>23728</v>
+        <v>3.166933580579906</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>9625.345591777022</v>
       </c>
       <c r="C22" t="n">
-        <v>18251</v>
+        <v>3.363103391594981</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>9770.115568540185</v>
       </c>
       <c r="C23" t="n">
-        <v>35982</v>
+        <v>1.756294814073704</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>10975.27443646056</v>
       </c>
       <c r="C24" t="n">
-        <v>26367</v>
+        <v>2.684985019152729</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>8816.974454537107</v>
       </c>
       <c r="C25" t="n">
-        <v>60661</v>
+        <v>0.9440167488171972</v>
       </c>
     </row>
     <row r="26">
@@ -770,7 +770,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>18767</v>
+        <v>3.718495230990568</v>
       </c>
     </row>
     <row r="27">
@@ -783,7 +783,7 @@
         <v>9146.018731848742</v>
       </c>
       <c r="C27" t="n">
-        <v>26473</v>
+        <v>2.171268839950138</v>
       </c>
     </row>
     <row r="28">
@@ -796,7 +796,7 @@
         <v>9042.775328038098</v>
       </c>
       <c r="C28" t="n">
-        <v>16896</v>
+        <v>3.415305397727273</v>
       </c>
     </row>
     <row r="29">
@@ -809,7 +809,7 @@
         <v>8171.720933472576</v>
       </c>
       <c r="C29" t="n">
-        <v>17000</v>
+        <v>2.992941176470588</v>
       </c>
     </row>
     <row r="30">
@@ -822,7 +822,7 @@
         <v>10749.73257828502</v>
       </c>
       <c r="C30" t="n">
-        <v>165082</v>
+        <v>0.4211240474430889</v>
       </c>
     </row>
     <row r="31">
@@ -835,7 +835,7 @@
         <v>7936.107582562128</v>
       </c>
       <c r="C31" t="n">
-        <v>17843</v>
+        <v>2.947934764333352</v>
       </c>
     </row>
     <row r="32">
@@ -848,7 +848,7 @@
         <v>8795.783013158567</v>
       </c>
       <c r="C32" t="n">
-        <v>45723.07</v>
+        <v>1.226733025582053</v>
       </c>
     </row>
     <row r="33">
@@ -861,7 +861,7 @@
         <v>9520.182393660441</v>
       </c>
       <c r="C33" t="n">
-        <v>26321</v>
+        <v>2.261692184947381</v>
       </c>
     </row>
     <row r="34">
@@ -874,7 +874,7 @@
         <v>11047.11231706758</v>
       </c>
       <c r="C34" t="n">
-        <v>33271</v>
+        <v>2.11670824441706</v>
       </c>
     </row>
     <row r="35">
@@ -887,7 +887,7 @@
         <v>8465.566058219365</v>
       </c>
       <c r="C35" t="n">
-        <v>22412</v>
+        <v>2.482375513117972</v>
       </c>
     </row>
     <row r="36">
@@ -900,7 +900,7 @@
         <v>8260.0119826718</v>
       </c>
       <c r="C36" t="n">
-        <v>18228</v>
+        <v>2.99402018872065</v>
       </c>
     </row>
     <row r="37">
@@ -913,7 +913,7 @@
         <v>11422.2359589105</v>
       </c>
       <c r="C37" t="n">
-        <v>43139</v>
+        <v>1.72535292890424</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         <v>7907.87753247439</v>
       </c>
       <c r="C38" t="n">
-        <v>17563</v>
+        <v>2.993224392188123</v>
       </c>
     </row>
     <row r="39">
@@ -939,7 +939,7 @@
         <v>9649.760097798806</v>
       </c>
       <c r="C39" t="n">
-        <v>18371</v>
+        <v>3.284796690436013</v>
       </c>
     </row>
     <row r="40">
@@ -952,7 +952,7 @@
         <v>8778.862975208966</v>
       </c>
       <c r="C40" t="n">
-        <v>44853.07</v>
+        <v>1.264127516800968</v>
       </c>
     </row>
     <row r="41">
@@ -965,7 +965,7 @@
         <v>10293.92908848076</v>
       </c>
       <c r="C41" t="n">
-        <v>13770</v>
+        <v>4.704429920116195</v>
       </c>
     </row>
     <row r="42">
@@ -978,7 +978,7 @@
         <v>9511.662260139232</v>
       </c>
       <c r="C42" t="n">
-        <v>24470</v>
+        <v>2.445647731916633</v>
       </c>
     </row>
     <row r="43">
@@ -991,7 +991,7 @@
         <v>8554.56367739441</v>
       </c>
       <c r="C43" t="n">
-        <v>43943</v>
+        <v>1.260610336117243</v>
       </c>
     </row>
     <row r="44">
@@ -1004,7 +1004,7 @@
         <v>9332.304725248896</v>
       </c>
       <c r="C44" t="n">
-        <v>15306</v>
+        <v>3.968705082973997</v>
       </c>
     </row>
     <row r="45">
@@ -1017,7 +1017,7 @@
         <v>10500.24522459038</v>
       </c>
       <c r="C45" t="n">
-        <v>21737</v>
+        <v>3.152228918434007</v>
       </c>
     </row>
     <row r="46">
@@ -1030,7 +1030,7 @@
         <v>10505.80499905728</v>
       </c>
       <c r="C46" t="n">
-        <v>37361</v>
+        <v>1.821551885656165</v>
       </c>
     </row>
     <row r="47">
@@ -1043,7 +1043,7 @@
         <v>10760.26864696119</v>
       </c>
       <c r="C47" t="n">
-        <v>34964</v>
+        <v>2.006492392174808</v>
       </c>
     </row>
     <row r="48">
@@ -1056,7 +1056,7 @@
         <v>11133.48494840261</v>
       </c>
       <c r="C48" t="n">
-        <v>163052</v>
+        <v>0.4309668081348281</v>
       </c>
     </row>
     <row r="49">
@@ -1069,7 +1069,7 @@
         <v>9210.490800436994</v>
       </c>
       <c r="C49" t="n">
-        <v>15933</v>
+        <v>3.70300633904475</v>
       </c>
     </row>
     <row r="50">
@@ -1082,7 +1082,7 @@
         <v>8776.015685076485</v>
       </c>
       <c r="C50" t="n">
-        <v>60351</v>
+        <v>0.9269109045417641</v>
       </c>
     </row>
     <row r="51">
@@ -1095,7 +1095,7 @@
         <v>11392.03890437287</v>
       </c>
       <c r="C51" t="n">
-        <v>164642</v>
+        <v>0.4414730141762127</v>
       </c>
     </row>
     <row r="52">
@@ -1108,7 +1108,7 @@
         <v>14752.99086396497</v>
       </c>
       <c r="C52" t="n">
-        <v>168882</v>
+        <v>0.5763787733447022</v>
       </c>
     </row>
     <row r="53">
@@ -1121,7 +1121,7 @@
         <v>18502.9522639966</v>
       </c>
       <c r="C53" t="n">
-        <v>168372</v>
+        <v>0.7291592426294158</v>
       </c>
     </row>
     <row r="54">
@@ -1134,7 +1134,7 @@
         <v>13303.98788437886</v>
       </c>
       <c r="C54" t="n">
-        <v>32116</v>
+        <v>2.723720264042845</v>
       </c>
     </row>
     <row r="55">
@@ -1147,7 +1147,7 @@
         <v>8087.802213318176</v>
       </c>
       <c r="C55" t="n">
-        <v>47822</v>
+        <v>1.113504244908201</v>
       </c>
     </row>
     <row r="56">
@@ -1160,7 +1160,7 @@
         <v>10521.53478219449</v>
       </c>
       <c r="C56" t="n">
-        <v>40769</v>
+        <v>1.710736098506218</v>
       </c>
     </row>
     <row r="57">
@@ -1173,7 +1173,7 @@
         <v>12688.25163360497</v>
       </c>
       <c r="C57" t="n">
-        <v>27858</v>
+        <v>2.988549070285017</v>
       </c>
     </row>
   </sheetData>
